--- a/docs/Project Gantt Chart.xlsx
+++ b/docs/Project Gantt Chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Enterprise-Systems-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7F3829-55C9-49A2-A712-DF43840FCBEA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
   <si>
     <t>Task Name</t>
   </si>
@@ -138,12 +134,78 @@
   </si>
   <si>
     <t>Planned Start</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Complete task delivery form 2</t>
+  </si>
+  <si>
+    <t>Update Gantt Chart 2</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>Complete functionality  Customer</t>
+  </si>
+  <si>
+    <t>Complete functionality of Admin</t>
+  </si>
+  <si>
+    <t>Complete Sprint presentation</t>
+  </si>
+  <si>
+    <t>Test respective module</t>
+  </si>
+  <si>
+    <t>Handle session timeout</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Connor Hill, Tom Vanlaer-McCanna</t>
+  </si>
+  <si>
+    <t>Jonas Arud</t>
+  </si>
+  <si>
+    <t>Complete functionality of Driver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,73 +430,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,17 +812,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -780,15 +843,15 @@
     <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -800,11 +863,11 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -816,11 +879,11 @@
       <c r="C4" s="1">
         <v>14</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -832,11 +895,11 @@
       <c r="C5" s="1">
         <v>14</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -848,11 +911,11 @@
       <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -864,11 +927,11 @@
       <c r="C7" s="1">
         <v>14</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -880,11 +943,11 @@
       <c r="C8" s="1">
         <v>14</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -896,11 +959,11 @@
       <c r="C9" s="1">
         <v>14</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -912,11 +975,11 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -926,101 +989,177 @@
         <v>30</v>
       </c>
       <c r="C11" s="1">
+        <v>14</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="D17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="A20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1042,22 +1181,22 @@
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1078,133 +1217,133 @@
       <c r="F28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="27">
         <v>43402</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="27">
         <v>43403</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="27">
         <v>43404</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="27">
         <v>43405</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="27">
         <v>43406</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="27">
         <v>43407</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="27">
         <v>43408</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="27">
         <v>43409</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="27">
         <v>43410</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="27">
         <v>43411</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="27">
         <v>43412</v>
       </c>
-      <c r="R28" s="36">
+      <c r="R28" s="27">
         <v>43413</v>
       </c>
-      <c r="S28" s="36">
+      <c r="S28" s="27">
         <v>43414</v>
       </c>
-      <c r="T28" s="36">
+      <c r="T28" s="27">
         <v>43415</v>
       </c>
-      <c r="U28" s="16">
+      <c r="U28" s="14">
         <v>43416</v>
       </c>
-      <c r="V28" s="16">
+      <c r="V28" s="14">
         <v>43417</v>
       </c>
-      <c r="W28" s="16">
+      <c r="W28" s="14">
         <v>43418</v>
       </c>
-      <c r="X28" s="16">
+      <c r="X28" s="14">
         <v>43419</v>
       </c>
-      <c r="Y28" s="16">
+      <c r="Y28" s="14">
         <v>43420</v>
       </c>
-      <c r="Z28" s="16">
+      <c r="Z28" s="14">
         <v>43421</v>
       </c>
-      <c r="AA28" s="16">
+      <c r="AA28" s="14">
         <v>43422</v>
       </c>
-      <c r="AB28" s="16">
+      <c r="AB28" s="14">
         <v>43423</v>
       </c>
-      <c r="AC28" s="16">
+      <c r="AC28" s="14">
         <v>43424</v>
       </c>
-      <c r="AD28" s="16">
+      <c r="AD28" s="14">
         <v>43425</v>
       </c>
-      <c r="AE28" s="16">
+      <c r="AE28" s="14">
         <v>43426</v>
       </c>
-      <c r="AF28" s="16">
+      <c r="AF28" s="14">
         <v>43427</v>
       </c>
-      <c r="AG28" s="16">
+      <c r="AG28" s="14">
         <v>43428</v>
       </c>
-      <c r="AH28" s="16">
+      <c r="AH28" s="14">
         <v>43429</v>
       </c>
-      <c r="AI28" s="16">
+      <c r="AI28" s="14">
         <v>43430</v>
       </c>
-      <c r="AJ28" s="16">
+      <c r="AJ28" s="14">
         <v>43431</v>
       </c>
-      <c r="AK28" s="16">
+      <c r="AK28" s="14">
         <v>43432</v>
       </c>
-      <c r="AL28" s="16">
+      <c r="AL28" s="14">
         <v>43433</v>
       </c>
-      <c r="AM28" s="16">
+      <c r="AM28" s="14">
         <v>43434</v>
       </c>
-      <c r="AN28" s="16">
+      <c r="AN28" s="14">
         <v>43435</v>
       </c>
-      <c r="AO28" s="16">
+      <c r="AO28" s="14">
         <v>43436</v>
       </c>
-      <c r="AP28" s="16">
+      <c r="AP28" s="14">
         <v>43437</v>
       </c>
-      <c r="AQ28" s="16">
+      <c r="AQ28" s="14">
         <v>43438</v>
       </c>
-      <c r="AR28" s="16">
+      <c r="AR28" s="14">
         <v>43439</v>
       </c>
-      <c r="AS28" s="16">
+      <c r="AS28" s="14">
         <v>43440</v>
       </c>
-      <c r="AT28" s="16">
+      <c r="AT28" s="14">
         <v>43441</v>
       </c>
-      <c r="AU28" s="16">
+      <c r="AU28" s="14">
         <v>43442</v>
       </c>
-      <c r="AV28" s="16">
+      <c r="AV28" s="14">
         <v>43443</v>
       </c>
-      <c r="AW28" s="16">
+      <c r="AW28" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -1212,7 +1351,7 @@
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="22">
         <v>43402</v>
       </c>
       <c r="C29" s="1">
@@ -1224,12 +1363,12 @@
       <c r="E29" s="7">
         <v>1</v>
       </c>
-      <c r="F29" s="33">
-        <v>1</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1275,7 +1414,7 @@
       <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="22">
         <v>43402</v>
       </c>
       <c r="C30" s="1">
@@ -1287,12 +1426,12 @@
       <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="33">
-        <v>1</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="24">
+        <v>1</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1338,7 +1477,7 @@
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="22">
         <v>43402</v>
       </c>
       <c r="C31" s="1">
@@ -1350,12 +1489,12 @@
       <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" s="33">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1401,7 +1540,7 @@
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="22">
         <v>43402</v>
       </c>
       <c r="C32" s="1">
@@ -1413,23 +1552,23 @@
       <c r="E32" s="8">
         <v>7</v>
       </c>
-      <c r="F32" s="33">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
+      <c r="F32" s="24">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
       <c r="U32" s="12"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -1464,7 +1603,7 @@
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="22">
         <v>43402</v>
       </c>
       <c r="C33" s="1">
@@ -1476,23 +1615,23 @@
       <c r="E33" s="8">
         <v>11</v>
       </c>
-      <c r="F33" s="33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
+      <c r="F33" s="24">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
       <c r="U33" s="12"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -1527,7 +1666,7 @@
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="22">
         <v>43402</v>
       </c>
       <c r="C34" s="1">
@@ -1539,27 +1678,27 @@
       <c r="E34" s="8">
         <v>13</v>
       </c>
-      <c r="F34" s="33">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="21"/>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="19"/>
       <c r="U34" s="12"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
+      <c r="X34" s="15"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
@@ -1590,7 +1729,7 @@
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="23">
         <v>43408</v>
       </c>
       <c r="C35" s="1">
@@ -1602,24 +1741,24 @@
       <c r="E35" s="8">
         <v>1</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="24">
         <v>1</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="35"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="26"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -1653,7 +1792,7 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="23">
         <v>43408</v>
       </c>
       <c r="C36" s="1">
@@ -1665,24 +1804,24 @@
       <c r="E36" s="1">
         <v>7</v>
       </c>
-      <c r="F36" s="33">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="35"/>
+      <c r="F36" s="24">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="26"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -1713,18 +1852,28 @@
       <c r="AW36" s="1"/>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C37" s="1">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="F37" s="24">
+        <v>1</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -1733,7 +1882,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="12"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -1764,18 +1913,28 @@
       <c r="AW37" s="1"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C38" s="1">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="F38" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -1784,20 +1943,20 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -1815,18 +1974,26 @@
       <c r="AW38" s="1"/>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -1835,20 +2002,20 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -1866,18 +2033,28 @@
       <c r="AW39" s="1"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C40" s="1">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="F40" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -1886,20 +2063,20 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -1917,18 +2094,26 @@
       <c r="AW40" s="1"/>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C41" s="1">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -1937,20 +2122,20 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -1967,29 +2152,377 @@
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
     </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C43" s="1">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C44" s="1">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="23">
+        <v>43416</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1997,7 +2530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2021,10 +2554,10 @@
       <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
@@ -2034,10 +2567,10 @@
       <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="15"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -2047,10 +2580,10 @@
       <c r="M1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2062,10 +2595,10 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2075,10 +2608,10 @@
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2088,10 +2621,10 @@
       <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="14"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2103,10 +2636,10 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2116,10 +2649,10 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2129,10 +2662,10 @@
       <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2144,10 +2677,10 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2157,10 +2690,10 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2170,10 +2703,10 @@
       <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2185,10 +2718,10 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2198,10 +2731,10 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2211,10 +2744,10 @@
       <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="14"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2226,10 +2759,10 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2239,10 +2772,10 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2252,10 +2785,10 @@
       <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2267,10 +2800,10 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2280,10 +2813,10 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2293,10 +2826,10 @@
       <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="14"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2308,10 +2841,10 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2321,10 +2854,10 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2334,10 +2867,10 @@
       <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="14"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2349,10 +2882,10 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2362,10 +2895,10 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2375,24 +2908,13 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="14"/>
+      <c r="O9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2409,6 +2931,17 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Project Gantt Chart.xlsx
+++ b/docs/Project Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GitHub Projects\Enterprise-Systems-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7F3829-55C9-49A2-A712-DF43840FCBEA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{21AB491E-3BC7-4DD6-87CF-99BB14E0D1DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,6 +475,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -483,15 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,14 +844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -863,11 +863,11 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1147,9 +1147,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -2071,12 +2071,12 @@
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2502,27 +2502,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2915,6 +2915,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2931,17 +2942,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Project Gantt Chart.xlsx
+++ b/docs/Project Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GitHub Projects\Enterprise-Systems-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Projects\Enterprise-Systems-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{21AB491E-3BC7-4DD6-87CF-99BB14E0D1DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D6788-3851-4879-BE28-4900061F77AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="59">
   <si>
     <t>Task Name</t>
   </si>
@@ -157,18 +157,6 @@
     <t>T13</t>
   </si>
   <si>
-    <t>Complete functionality  Customer</t>
-  </si>
-  <si>
-    <t>Complete functionality of Admin</t>
-  </si>
-  <si>
-    <t>Complete Sprint presentation</t>
-  </si>
-  <si>
-    <t>Test respective module</t>
-  </si>
-  <si>
     <t>Handle session timeout</t>
   </si>
   <si>
@@ -190,16 +178,31 @@
     <t>T19</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Connor Hill, Tom Vanlaer-McCanna</t>
   </si>
   <si>
     <t>Jonas Arud</t>
   </si>
   <si>
-    <t>Complete functionality of Driver</t>
+    <t>Graphical implementation of customer access</t>
+  </si>
+  <si>
+    <t>Graphical implementation of head office access</t>
+  </si>
+  <si>
+    <t>Graphical implementation of driver access</t>
+  </si>
+  <si>
+    <t>Commit review</t>
+  </si>
+  <si>
+    <t>Finalise user interface/house style</t>
+  </si>
+  <si>
+    <t>Design and add logo</t>
+  </si>
+  <si>
+    <t>William Blackie</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +478,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,19 +496,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,45 +824,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:W40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="64" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" customWidth="1"/>
+    <col min="21" max="28" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="40" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="48" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -863,13 +874,13 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -885,7 +896,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -901,7 +912,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -917,7 +928,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -933,7 +944,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -949,7 +960,7 @@
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -965,7 +976,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -981,7 +992,7 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -997,7 +1008,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1008,12 +1019,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1021,36 +1032,36 @@
         <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>14</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1061,25 +1072,25 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
@@ -1088,72 +1099,78 @@
         <v>7</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1">
         <v>14</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
@@ -1161,18 +1178,18 @@
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="4"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1180,13 +1197,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -1198,7 +1215,7 @@
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1364,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -1357,8 +1374,8 @@
       <c r="C29" s="1">
         <v>14</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
+      <c r="D29" s="22">
+        <v>43402</v>
       </c>
       <c r="E29" s="7">
         <v>1</v>
@@ -1410,7 +1427,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1437,8 @@
       <c r="C30" s="1">
         <v>14</v>
       </c>
-      <c r="D30" s="8">
-        <v>1</v>
+      <c r="D30" s="22">
+        <v>43402</v>
       </c>
       <c r="E30" s="8">
         <v>1</v>
@@ -1473,7 +1490,7 @@
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -1483,8 +1500,8 @@
       <c r="C31" s="1">
         <v>14</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
+      <c r="D31" s="22">
+        <v>43402</v>
       </c>
       <c r="E31" s="8">
         <v>1</v>
@@ -1536,7 +1553,7 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -1546,8 +1563,8 @@
       <c r="C32" s="1">
         <v>14</v>
       </c>
-      <c r="D32" s="8">
-        <v>2</v>
+      <c r="D32" s="22">
+        <v>43402</v>
       </c>
       <c r="E32" s="8">
         <v>7</v>
@@ -1599,7 +1616,7 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
@@ -1609,8 +1626,8 @@
       <c r="C33" s="1">
         <v>14</v>
       </c>
-      <c r="D33" s="8">
-        <v>2</v>
+      <c r="D33" s="22">
+        <v>43402</v>
       </c>
       <c r="E33" s="8">
         <v>11</v>
@@ -1662,7 +1679,7 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -1672,8 +1689,8 @@
       <c r="C34" s="1">
         <v>14</v>
       </c>
-      <c r="D34" s="8">
-        <v>2</v>
+      <c r="D34" s="22">
+        <v>43402</v>
       </c>
       <c r="E34" s="8">
         <v>13</v>
@@ -1725,7 +1742,7 @@
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
@@ -1735,8 +1752,8 @@
       <c r="C35" s="1">
         <v>7</v>
       </c>
-      <c r="D35" s="8">
-        <v>2</v>
+      <c r="D35" s="23">
+        <v>43408</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
@@ -1788,7 +1805,7 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -1798,8 +1815,8 @@
       <c r="C36" s="1">
         <v>7</v>
       </c>
-      <c r="D36" s="1">
-        <v>2</v>
+      <c r="D36" s="23">
+        <v>43408</v>
       </c>
       <c r="E36" s="1">
         <v>7</v>
@@ -1851,20 +1868,22 @@
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="23">
-        <v>43416</v>
+        <v>43429</v>
       </c>
       <c r="C37" s="1">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
+        <v>43429</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
       <c r="F37" s="24">
         <v>1</v>
       </c>
@@ -1912,7 +1931,7 @@
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -1920,12 +1939,14 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="23">
+        <v>43428</v>
+      </c>
+      <c r="E38" s="1">
         <v>14</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1"/>
       <c r="F38" s="24">
         <v>0.75</v>
       </c>
@@ -1955,7 +1976,7 @@
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="17"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -1973,7 +1994,7 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
@@ -1983,11 +2004,15 @@
       <c r="C39" s="1">
         <v>14</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="25"/>
+      <c r="D39" s="23">
+        <v>43416</v>
+      </c>
+      <c r="E39" s="1">
+        <v>12</v>
+      </c>
+      <c r="F39" s="24">
+        <v>1</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
@@ -2004,18 +2029,18 @@
       <c r="T39" s="1"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2032,7 +2057,7 @@
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -2042,12 +2067,14 @@
       <c r="C40" s="1">
         <v>14</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1"/>
+      <c r="D40" s="23">
+        <v>43416</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
       <c r="F40" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -2063,20 +2090,20 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2093,7 +2120,7 @@
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -2103,11 +2130,15 @@
       <c r="C41" s="1">
         <v>14</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="25"/>
+      <c r="D41" s="23">
+        <v>43416</v>
+      </c>
+      <c r="E41" s="1">
+        <v>12</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1</v>
+      </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -2124,18 +2155,18 @@
       <c r="T41" s="1"/>
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2152,23 +2183,25 @@
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B42" s="23">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="C42" s="1">
         <v>7</v>
       </c>
-      <c r="D42" s="1">
-        <v>2</v>
+      <c r="D42" s="23">
+        <v>43423</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -2213,21 +2246,25 @@
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" s="23">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="C43" s="1">
         <v>14</v>
       </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="25"/>
+      <c r="D43" s="23">
+        <v>43423</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24">
+        <v>1</v>
+      </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
@@ -2244,7 +2281,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
+      <c r="W43" s="37"/>
       <c r="X43" s="18"/>
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
@@ -2272,21 +2309,25 @@
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B44" s="23">
         <v>43416</v>
       </c>
       <c r="C44" s="1">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="D44" s="23">
+        <v>43416</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="24">
+        <v>1</v>
+      </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
@@ -2331,9 +2372,9 @@
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B45" s="23">
         <v>43416</v>
@@ -2341,8 +2382,8 @@
       <c r="C45" s="1">
         <v>7</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
+      <c r="D45" s="23">
+        <v>43416</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -2371,13 +2412,13 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2394,15 +2435,25 @@
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="B46" s="23">
+        <v>43423</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46" s="23">
+        <v>43423</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2417,20 +2468,20 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2447,9 +2498,9 @@
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="1"/>
@@ -2502,27 +2553,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2537,14 +2588,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -2585,7 +2636,7 @@
       </c>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2677,7 @@
       </c>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2718,7 @@
       </c>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +2759,7 @@
       </c>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2800,7 @@
       </c>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2790,7 +2841,7 @@
       </c>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2831,7 +2882,7 @@
       </c>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2872,7 +2923,7 @@
       </c>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2915,17 +2966,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2942,6 +2982,17 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
